--- a/frontend/public/csv/VNDKRW.xlsx
+++ b/frontend/public/csv/VNDKRW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\song-e-pay\frontend\public\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_LBY\song-e-pay\frontend\public\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128DD3B9-6D1E-4F84-BDB6-E246ED2FF180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1796B97A-C1D8-42BE-A3D2-D6FF27472E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,7 +999,6 @@
   </si>
   <si>
     <t>exchange_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1346,7 +1345,7 @@
   <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1386,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.92</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -1403,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.88</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -1420,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.9000000000000004</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -1437,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.92</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -1454,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.9400000000000004</v>
+        <v>4.9400000000000006E-2</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -1471,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.91</v>
+        <v>4.9100000000000005E-2</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1488,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -1505,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1522,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1539,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1556,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1573,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1590,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -1607,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1624,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -1641,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.71</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -1658,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1675,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
@@ -1692,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.71</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1709,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
@@ -1726,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E22" t="s">
         <v>20</v>
@@ -1743,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1760,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E24" t="s">
         <v>22</v>
@@ -1777,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
@@ -1794,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E26" t="s">
         <v>24</v>
@@ -1811,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
@@ -1828,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -1845,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E29" t="s">
         <v>27</v>
@@ -1862,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E30" t="s">
         <v>28</v>
@@ -1879,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E31" t="s">
         <v>29</v>
@@ -1896,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E32" t="s">
         <v>30</v>
@@ -1913,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E33" t="s">
         <v>31</v>
@@ -1930,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E34" t="s">
         <v>32</v>
@@ -1947,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>4.82</v>
+        <v>4.82E-2</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
@@ -1964,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
@@ -1981,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E37" t="s">
         <v>35</v>
@@ -1998,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E38" t="s">
         <v>36</v>
@@ -2015,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
@@ -2032,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E40" t="s">
         <v>38</v>
@@ -2049,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E41" t="s">
         <v>39</v>
@@ -2066,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
@@ -2083,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E43" t="s">
         <v>41</v>
@@ -2100,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E44" t="s">
         <v>42</v>
@@ -2117,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E45" t="s">
         <v>43</v>
@@ -2134,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>4.71</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="E46" t="s">
         <v>44</v>
@@ -2151,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E47" t="s">
         <v>45</v>
@@ -2168,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E48" t="s">
         <v>46</v>
@@ -2185,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E49" t="s">
         <v>47</v>
@@ -2202,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E50" t="s">
         <v>48</v>
@@ -2219,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E51" t="s">
         <v>49</v>
@@ -2236,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E52" t="s">
         <v>50</v>
@@ -2253,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E53" t="s">
         <v>51</v>
@@ -2270,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E54" t="s">
         <v>52</v>
@@ -2287,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E55" t="s">
         <v>53</v>
@@ -2304,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="D56">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E56" t="s">
         <v>54</v>
@@ -2321,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E57" t="s">
         <v>55</v>
@@ -2338,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="D58">
-        <v>4.82</v>
+        <v>4.82E-2</v>
       </c>
       <c r="E58" t="s">
         <v>56</v>
@@ -2355,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="D59">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
@@ -2372,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E60" t="s">
         <v>58</v>
@@ -2389,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="D61">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E61" t="s">
         <v>59</v>
@@ -2406,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E62" t="s">
         <v>60</v>
@@ -2423,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E63" t="s">
         <v>61</v>
@@ -2440,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <v>4.8600000000000003</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="E64" t="s">
         <v>62</v>
@@ -2457,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E65" t="s">
         <v>63</v>
@@ -2474,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E66" t="s">
         <v>64</v>
@@ -2491,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <v>4.6900000000000004</v>
+        <v>4.6900000000000004E-2</v>
       </c>
       <c r="E67" t="s">
         <v>65</v>
@@ -2508,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E68" t="s">
         <v>66</v>
@@ -2525,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E69" t="s">
         <v>67</v>
@@ -2542,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="D70">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E70" t="s">
         <v>68</v>
@@ -2559,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E71" t="s">
         <v>69</v>
@@ -2576,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E72" t="s">
         <v>70</v>
@@ -2593,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E73" t="s">
         <v>71</v>
@@ -2610,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E74" t="s">
         <v>72</v>
@@ -2627,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E75" t="s">
         <v>73</v>
@@ -2644,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E76" t="s">
         <v>74</v>
@@ -2661,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E77" t="s">
         <v>75</v>
@@ -2678,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E78" t="s">
         <v>76</v>
@@ -2695,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>4.71</v>
+        <v>4.7100000000000003E-2</v>
       </c>
       <c r="E79" t="s">
         <v>77</v>
@@ -2712,7 +2711,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E80" t="s">
         <v>78</v>
@@ -2729,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E81" t="s">
         <v>79</v>
@@ -2746,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E82" t="s">
         <v>80</v>
@@ -2763,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E83" t="s">
         <v>81</v>
@@ -2780,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E84" t="s">
         <v>82</v>
@@ -2797,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E85" t="s">
         <v>83</v>
@@ -2814,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E86" t="s">
         <v>84</v>
@@ -2831,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E87" t="s">
         <v>85</v>
@@ -2848,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E88" t="s">
         <v>86</v>
@@ -2865,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E89" t="s">
         <v>87</v>
@@ -2882,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E90" t="s">
         <v>88</v>
@@ -2899,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E91" t="s">
         <v>89</v>
@@ -2916,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E92" t="s">
         <v>90</v>
@@ -2933,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>4.8899999999999997</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E93" t="s">
         <v>91</v>
@@ -2950,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>4.91</v>
+        <v>4.9100000000000005E-2</v>
       </c>
       <c r="E94" t="s">
         <v>92</v>
@@ -2967,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>4.91</v>
+        <v>4.9100000000000005E-2</v>
       </c>
       <c r="E95" t="s">
         <v>93</v>
@@ -2984,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E96" t="s">
         <v>94</v>
@@ -3001,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E97" t="s">
         <v>95</v>
@@ -3018,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E98" t="s">
         <v>96</v>
@@ -3035,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E99" t="s">
         <v>97</v>
@@ -3052,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E100" t="s">
         <v>98</v>
@@ -3069,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E101" t="s">
         <v>99</v>
@@ -3086,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E102" t="s">
         <v>100</v>
@@ -3103,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="D103">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E103" t="s">
         <v>101</v>
@@ -3120,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="D104">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E104" t="s">
         <v>102</v>
@@ -3137,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="D105">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
@@ -3154,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="D106">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
@@ -3171,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="D107">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E107" t="s">
         <v>105</v>
@@ -3188,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>4.82</v>
+        <v>4.82E-2</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
@@ -3205,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="D109">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E109" t="s">
         <v>107</v>
@@ -3222,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E110" t="s">
         <v>108</v>
@@ -3239,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="D111">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E111" t="s">
         <v>109</v>
@@ -3256,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="D112">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E112" t="s">
         <v>110</v>
@@ -3273,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>4.8899999999999997</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E113" t="s">
         <v>111</v>
@@ -3290,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>4.88</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="E114" t="s">
         <v>112</v>
@@ -3307,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>4.88</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="E115" t="s">
         <v>113</v>
@@ -3324,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>4.8899999999999997</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E116" t="s">
         <v>114</v>
@@ -3341,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E117" t="s">
         <v>115</v>
@@ -3358,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E118" t="s">
         <v>116</v>
@@ -3375,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E119" t="s">
         <v>117</v>
@@ -3392,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E120" t="s">
         <v>118</v>
@@ -3409,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="D121">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E121" t="s">
         <v>119</v>
@@ -3426,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="D122">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E122" t="s">
         <v>120</v>
@@ -3443,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="D123">
-        <v>4.88</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="E123" t="s">
         <v>121</v>
@@ -3460,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="D124">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E124" t="s">
         <v>122</v>
@@ -3477,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="D125">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E125" t="s">
         <v>123</v>
@@ -3494,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="D126">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E126" t="s">
         <v>124</v>
@@ -3511,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="D127">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E127" t="s">
         <v>125</v>
@@ -3528,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E128" t="s">
         <v>126</v>
@@ -3545,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="D129">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E129" t="s">
         <v>127</v>
@@ -3562,7 +3561,7 @@
         <v>0</v>
       </c>
       <c r="D130">
-        <v>4.88</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="E130" t="s">
         <v>128</v>
@@ -3579,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="D131">
-        <v>4.8600000000000003</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="E131" t="s">
         <v>129</v>
@@ -3596,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="D132">
-        <v>4.8600000000000003</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="E132" t="s">
         <v>130</v>
@@ -3613,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="D133">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E133" t="s">
         <v>131</v>
@@ -3630,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="D134">
-        <v>4.6900000000000004</v>
+        <v>4.6900000000000004E-2</v>
       </c>
       <c r="E134" t="s">
         <v>132</v>
@@ -3647,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="D135">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E135" t="s">
         <v>133</v>
@@ -3664,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E136" t="s">
         <v>134</v>
@@ -3681,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E137" t="s">
         <v>135</v>
@@ -3698,7 +3697,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E138" t="s">
         <v>136</v>
@@ -3715,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>4.7</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E139" t="s">
         <v>137</v>
@@ -3732,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>4.68</v>
+        <v>4.6799999999999994E-2</v>
       </c>
       <c r="E140" t="s">
         <v>138</v>
@@ -3749,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>4.7</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E141" t="s">
         <v>139</v>
@@ -3766,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E142" t="s">
         <v>140</v>
@@ -3783,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E143" t="s">
         <v>141</v>
@@ -3800,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E144" t="s">
         <v>142</v>
@@ -3817,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E145" t="s">
         <v>143</v>
@@ -3834,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E146" t="s">
         <v>144</v>
@@ -3851,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E147" t="s">
         <v>145</v>
@@ -3868,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E148" t="s">
         <v>146</v>
@@ -3885,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="D149">
-        <v>4.7</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E149" t="s">
         <v>147</v>
@@ -3902,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D150">
-        <v>4.67</v>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="E150" t="s">
         <v>148</v>
@@ -3919,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="D151">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E151" t="s">
         <v>149</v>
@@ -3936,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E152" t="s">
         <v>150</v>
@@ -3953,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="D153">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E153" t="s">
         <v>151</v>
@@ -3970,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E154" t="s">
         <v>152</v>
@@ -3987,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="D155">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E155" t="s">
         <v>153</v>
@@ -4004,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E156" t="s">
         <v>154</v>
@@ -4021,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E157" t="s">
         <v>155</v>
@@ -4038,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E158" t="s">
         <v>156</v>
@@ -4055,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E159" t="s">
         <v>157</v>
@@ -4072,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E160" t="s">
         <v>158</v>
@@ -4089,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E161" t="s">
         <v>159</v>
@@ -4106,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E162" t="s">
         <v>160</v>
@@ -4123,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="D163">
-        <v>4.82</v>
+        <v>4.82E-2</v>
       </c>
       <c r="E163" t="s">
         <v>161</v>
@@ -4140,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="D164">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E164" t="s">
         <v>162</v>
@@ -4157,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="D165">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E165" t="s">
         <v>163</v>
@@ -4174,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="D166">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E166" t="s">
         <v>164</v>
@@ -4191,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="D167">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E167" t="s">
         <v>165</v>
@@ -4208,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="D168">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E168" t="s">
         <v>166</v>
@@ -4225,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="D169">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E169" t="s">
         <v>167</v>
@@ -4242,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="D170">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E170" t="s">
         <v>168</v>
@@ -4259,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="D171">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E171" t="s">
         <v>169</v>
@@ -4276,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E172" t="s">
         <v>170</v>
@@ -4293,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="D173">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E173" t="s">
         <v>171</v>
@@ -4310,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E174" t="s">
         <v>172</v>
@@ -4327,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E175" t="s">
         <v>173</v>
@@ -4344,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="D176">
-        <v>4.8600000000000003</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="E176" t="s">
         <v>174</v>
@@ -4361,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E177" t="s">
         <v>175</v>
@@ -4378,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E178" t="s">
         <v>176</v>
@@ -4395,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="D179">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E179" t="s">
         <v>177</v>
@@ -4412,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="D180">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E180" t="s">
         <v>178</v>
@@ -4429,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="D181">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E181" t="s">
         <v>179</v>
@@ -4446,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="D182">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E182" t="s">
         <v>180</v>
@@ -4463,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="D183">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E183" t="s">
         <v>181</v>
@@ -4480,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="D184">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E184" t="s">
         <v>182</v>
@@ -4497,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="D185">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E185" t="s">
         <v>183</v>
@@ -4514,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="D186">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E186" t="s">
         <v>184</v>
@@ -4531,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="D187">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E187" t="s">
         <v>185</v>
@@ -4548,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="D188">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E188" t="s">
         <v>186</v>
@@ -4565,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="D189">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E189" t="s">
         <v>187</v>
@@ -4582,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="D190">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E190" t="s">
         <v>188</v>
@@ -4599,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="D191">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E191" t="s">
         <v>189</v>
@@ -4616,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="D192">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E192" t="s">
         <v>190</v>
@@ -4633,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="D193">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E193" t="s">
         <v>191</v>
@@ -4650,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="D194">
-        <v>4.7</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E194" t="s">
         <v>192</v>
@@ -4667,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="D195">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E195" t="s">
         <v>193</v>
@@ -4684,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="D196">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E196" t="s">
         <v>194</v>
@@ -4701,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="D197">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E197" t="s">
         <v>195</v>
@@ -4718,7 +4717,7 @@
         <v>0</v>
       </c>
       <c r="D198">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E198" t="s">
         <v>196</v>
@@ -4735,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E199" t="s">
         <v>197</v>
@@ -4752,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E200" t="s">
         <v>198</v>
@@ -4769,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E201" t="s">
         <v>199</v>
@@ -4786,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="D202">
-        <v>4.75</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="E202" t="s">
         <v>200</v>
@@ -4803,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="D203">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E203" t="s">
         <v>201</v>
@@ -4820,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="D204">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E204" t="s">
         <v>202</v>
@@ -4837,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E205" t="s">
         <v>203</v>
@@ -4854,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="D206">
-        <v>4.6900000000000004</v>
+        <v>4.6900000000000004E-2</v>
       </c>
       <c r="E206" t="s">
         <v>204</v>
@@ -4871,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="D207">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E207" t="s">
         <v>205</v>
@@ -4888,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="D208">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E208" t="s">
         <v>206</v>
@@ -4905,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E209" t="s">
         <v>207</v>
@@ -4922,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="D210">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E210" t="s">
         <v>208</v>
@@ -4939,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="D211">
-        <v>4.75</v>
+        <v>4.7500000000000001E-2</v>
       </c>
       <c r="E211" t="s">
         <v>209</v>
@@ -4956,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="D212">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E212" t="s">
         <v>210</v>
@@ -4973,7 +4972,7 @@
         <v>0</v>
       </c>
       <c r="D213">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E213" t="s">
         <v>211</v>
@@ -4990,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>4.9000000000000004</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E214" t="s">
         <v>212</v>
@@ -5007,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="D215">
-        <v>4.91</v>
+        <v>4.9100000000000005E-2</v>
       </c>
       <c r="E215" t="s">
         <v>213</v>
@@ -5024,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E216" t="s">
         <v>214</v>
@@ -5041,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>4.8600000000000003</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="E217" t="s">
         <v>215</v>
@@ -5058,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E218" t="s">
         <v>216</v>
@@ -5075,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="D219">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E219" t="s">
         <v>217</v>
@@ -5092,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="D220">
-        <v>4.9000000000000004</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="E220" t="s">
         <v>218</v>
@@ -5109,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="D221">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E221" t="s">
         <v>219</v>
@@ -5126,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="D222">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E222" t="s">
         <v>220</v>
@@ -5143,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E223" t="s">
         <v>221</v>
@@ -5160,7 +5159,7 @@
         <v>0</v>
       </c>
       <c r="D224">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E224" t="s">
         <v>222</v>
@@ -5177,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E225" t="s">
         <v>223</v>
@@ -5194,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="D226">
-        <v>4.88</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="E226" t="s">
         <v>224</v>
@@ -5211,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="D227">
-        <v>4.88</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="E227" t="s">
         <v>225</v>
@@ -5228,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>4.8899999999999997</v>
+        <v>4.8899999999999999E-2</v>
       </c>
       <c r="E228" t="s">
         <v>226</v>
@@ -5245,7 +5244,7 @@
         <v>0</v>
       </c>
       <c r="D229">
-        <v>4.88</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="E229" t="s">
         <v>227</v>
@@ -5262,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E230" t="s">
         <v>228</v>
@@ -5279,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="D231">
-        <v>4.88</v>
+        <v>4.8799999999999996E-2</v>
       </c>
       <c r="E231" t="s">
         <v>229</v>
@@ -5296,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="D232">
-        <v>4.8600000000000003</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="E232" t="s">
         <v>230</v>
@@ -5313,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="D233">
-        <v>4.8600000000000003</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="E233" t="s">
         <v>231</v>
@@ -5330,7 +5329,7 @@
         <v>0</v>
       </c>
       <c r="D234">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E234" t="s">
         <v>232</v>
@@ -5347,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="D235">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E235" t="s">
         <v>233</v>
@@ -5364,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="D236">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E236" t="s">
         <v>234</v>
@@ -5381,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="D237">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E237" t="s">
         <v>235</v>
@@ -5398,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="D238">
-        <v>4.6900000000000004</v>
+        <v>4.6900000000000004E-2</v>
       </c>
       <c r="E238" t="s">
         <v>236</v>
@@ -5415,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="D239">
-        <v>4.7</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E239" t="s">
         <v>237</v>
@@ -5432,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="D240">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E240" t="s">
         <v>238</v>
@@ -5449,7 +5448,7 @@
         <v>0</v>
       </c>
       <c r="D241">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E241" t="s">
         <v>239</v>
@@ -5466,7 +5465,7 @@
         <v>0</v>
       </c>
       <c r="D242">
-        <v>4.7300000000000004</v>
+        <v>4.7300000000000002E-2</v>
       </c>
       <c r="E242" t="s">
         <v>240</v>
@@ -5483,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="D243">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E243" t="s">
         <v>241</v>
@@ -5500,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E244" t="s">
         <v>242</v>
@@ -5517,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E245" t="s">
         <v>243</v>
@@ -5534,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E246" t="s">
         <v>244</v>
@@ -5551,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E247" t="s">
         <v>245</v>
@@ -5568,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E248" t="s">
         <v>246</v>
@@ -5585,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E249" t="s">
         <v>247</v>
@@ -5602,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E250" t="s">
         <v>248</v>
@@ -5619,7 +5618,7 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E251" t="s">
         <v>249</v>
@@ -5636,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E252" t="s">
         <v>250</v>
@@ -5653,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E253" t="s">
         <v>251</v>
@@ -5670,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E254" t="s">
         <v>252</v>
@@ -5687,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E255" t="s">
         <v>253</v>
@@ -5704,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E256" t="s">
         <v>254</v>
@@ -5721,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E257" t="s">
         <v>255</v>
@@ -5738,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E258" t="s">
         <v>256</v>
@@ -5755,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="D259">
-        <v>4.82</v>
+        <v>4.82E-2</v>
       </c>
       <c r="E259" t="s">
         <v>257</v>
@@ -5772,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="D260">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E260" t="s">
         <v>258</v>
@@ -5789,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="D261">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E261" t="s">
         <v>259</v>
@@ -5806,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E262" t="s">
         <v>260</v>
@@ -5823,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E263" t="s">
         <v>261</v>
@@ -5840,7 +5839,7 @@
         <v>0</v>
       </c>
       <c r="D264">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E264" t="s">
         <v>262</v>
@@ -5857,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E265" t="s">
         <v>263</v>
@@ -5874,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E266" t="s">
         <v>264</v>
@@ -5891,7 +5890,7 @@
         <v>0</v>
       </c>
       <c r="D267">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E267" t="s">
         <v>265</v>
@@ -5908,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="D268">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E268" t="s">
         <v>266</v>
@@ -5925,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="D269">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E269" t="s">
         <v>267</v>
@@ -5942,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E270" t="s">
         <v>268</v>
@@ -5959,7 +5958,7 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E271" t="s">
         <v>269</v>
@@ -5976,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>4.8499999999999996</v>
+        <v>4.8499999999999995E-2</v>
       </c>
       <c r="E272" t="s">
         <v>270</v>
@@ -5993,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E273" t="s">
         <v>271</v>
@@ -6010,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E274" t="s">
         <v>272</v>
@@ -6027,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="D275">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E275" t="s">
         <v>273</v>
@@ -6044,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="D276">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E276" t="s">
         <v>274</v>
@@ -6061,7 +6060,7 @@
         <v>0</v>
       </c>
       <c r="D277">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E277" t="s">
         <v>275</v>
@@ -6078,7 +6077,7 @@
         <v>0</v>
       </c>
       <c r="D278">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E278" t="s">
         <v>276</v>
@@ -6095,7 +6094,7 @@
         <v>0</v>
       </c>
       <c r="D279">
-        <v>4.87</v>
+        <v>4.87E-2</v>
       </c>
       <c r="E279" t="s">
         <v>277</v>
@@ -6112,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D280">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E280" t="s">
         <v>278</v>
@@ -6129,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E281" t="s">
         <v>279</v>
@@ -6146,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E282" t="s">
         <v>280</v>
@@ -6163,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E283" t="s">
         <v>281</v>
@@ -6180,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="D284">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E284" t="s">
         <v>282</v>
@@ -6197,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E285" t="s">
         <v>283</v>
@@ -6214,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="D286">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E286" t="s">
         <v>284</v>
@@ -6231,7 +6230,7 @@
         <v>0</v>
       </c>
       <c r="D287">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E287" t="s">
         <v>285</v>
@@ -6248,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E288" t="s">
         <v>286</v>
@@ -6265,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E289" t="s">
         <v>287</v>
@@ -6282,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E290" t="s">
         <v>288</v>
@@ -6299,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>4.8600000000000003</v>
+        <v>4.8600000000000004E-2</v>
       </c>
       <c r="E291" t="s">
         <v>289</v>
@@ -6316,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="D292">
-        <v>4.84</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="E292" t="s">
         <v>290</v>
@@ -6333,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E293" t="s">
         <v>291</v>
@@ -6350,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E294" t="s">
         <v>292</v>
@@ -6367,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="D295">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E295" t="s">
         <v>293</v>
@@ -6384,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="D296">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E296" t="s">
         <v>294</v>
@@ -6401,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E297" t="s">
         <v>295</v>
@@ -6418,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="D298">
-        <v>4.72</v>
+        <v>4.7199999999999999E-2</v>
       </c>
       <c r="E298" t="s">
         <v>296</v>
@@ -6435,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="D299">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E299" t="s">
         <v>297</v>
@@ -6452,7 +6451,7 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>4.74</v>
+        <v>4.7400000000000005E-2</v>
       </c>
       <c r="E300" t="s">
         <v>298</v>
@@ -6469,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="D301">
-        <v>4.68</v>
+        <v>4.6799999999999994E-2</v>
       </c>
       <c r="E301" t="s">
         <v>299</v>
@@ -6486,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="D302">
-        <v>4.7</v>
+        <v>4.7E-2</v>
       </c>
       <c r="E302" t="s">
         <v>300</v>
@@ -6503,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="D303">
-        <v>4.68</v>
+        <v>4.6799999999999994E-2</v>
       </c>
       <c r="E303" t="s">
         <v>301</v>
@@ -6520,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="D304">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E304" t="s">
         <v>302</v>
@@ -6537,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="D305">
-        <v>4.76</v>
+        <v>4.7599999999999996E-2</v>
       </c>
       <c r="E305" t="s">
         <v>303</v>
@@ -6554,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="D306">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E306" t="s">
         <v>304</v>
@@ -6571,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="D307">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E307" t="s">
         <v>305</v>
@@ -6588,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="D308">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E308" t="s">
         <v>306</v>
@@ -6605,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="D309">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E309" t="s">
         <v>307</v>
@@ -6622,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="D310">
-        <v>4.7699999999999996</v>
+        <v>4.7699999999999992E-2</v>
       </c>
       <c r="E310" t="s">
         <v>308</v>
@@ -6639,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="D311">
-        <v>4.83</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="E311" t="s">
         <v>309</v>
@@ -6656,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="D312">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E312" t="s">
         <v>310</v>
@@ -6673,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="D313">
-        <v>4.8</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E313" t="s">
         <v>311</v>
@@ -6690,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="D314">
-        <v>4.79</v>
+        <v>4.7899999999999998E-2</v>
       </c>
       <c r="E314" t="s">
         <v>312</v>
@@ -6707,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="D315">
-        <v>4.8099999999999996</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="E315" t="s">
         <v>313</v>
@@ -6724,7 +6723,7 @@
         <v>0</v>
       </c>
       <c r="D316">
-        <v>4.78</v>
+        <v>4.7800000000000002E-2</v>
       </c>
       <c r="E316" t="s">
         <v>314</v>
